--- a/data/D_DIRECCIÓN GENERAL DE ADMINISTRACIÓN.xlsx
+++ b/data/D_DIRECCIÓN GENERAL DE ADMINISTRACIÓN.xlsx
@@ -1,20 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gustavo\OneDrive\Escritorio\directorio\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD34040-F8FB-43F2-B2CF-3BF080197E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1B86B8A2-00C6-4488-8DB4-D93FF07D9D1E}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="DIRECCIÓN GENERAL DE ADMINISTRA"/>
+    <sheet name="Hoja2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="89">
   <si>
     <t>APELLIDOS Y NOMBRES</t>
   </si>
@@ -94,16 +114,19 @@
     <t>452-2023-R.</t>
   </si>
   <si>
-    <t>BAEZ VARGAS MIGUEL MARINO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Jefa - UNIDAD EJECUTORA DE INVERSIONES COMO GESTORA SISTEMAS INFOBRAS - UNAC.</t>
+    <t>MAYLLE SARAVIA ALEX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Jefe - UNIDAD EJECUTORA DE INVERSIONES COMO GESTORA SISTEMAS INFOBRAS - UNAC.</t>
   </si>
   <si>
     <t>UEI.</t>
   </si>
   <si>
-    <t>082-2024-R.</t>
+    <t>305-2024-R</t>
+  </si>
+  <si>
+    <t>amaylles@unac.pe</t>
   </si>
   <si>
     <t>unidad.inversiones@unac.edu.pe</t>
@@ -283,36 +306,36 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="1"/>
       <name val="Montserrat SemiBold"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
-      <color theme="1"/>
       <name val="Montserrat Medium"/>
-      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
-      <color rgb="FF008ecf"/>
+      <color rgb="FF008ECF"/>
       <name val="Montserrat Medium"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -324,7 +347,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFebde14"/>
+        <fgColor rgb="FFEBDE14"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -338,196 +362,514 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FF001F5F"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FF001F5F"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FF001F5F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFc6c6c6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFc6c6c6"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FF001F5F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <right/>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF001f5f"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF001f5f"/>
+        <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color rgb="FF001f5f"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color rgb="FF001f5f"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Montserrat SemiBold"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEBDE14"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Montserrat Medium"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF008ECF"/>
+        <name val="Montserrat Medium"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF001F5F"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF001F5F"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF001F5F"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF001F5F"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF008ECF"/>
+        <name val="Montserrat Medium"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF001F5F"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF001F5F"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF001F5F"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF001F5F"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Montserrat Medium"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Montserrat Medium"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Montserrat Medium"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Montserrat Medium"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Montserrat Medium"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H19" displayName="Tabla4" name="Tabla4" id="1" totalsRowShown="0">
-  <autoFilter ref="A1:H19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FA8F2B61-489E-4C16-BDDB-F5213A24272D}" name="Tabla2" displayName="Tabla2" ref="A1:H19" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="9" tableBorderDxfId="10">
+  <autoFilter ref="A1:H19" xr:uid="{FA8F2B61-489E-4C16-BDDB-F5213A24272D}"/>
   <tableColumns count="8">
-    <tableColumn name="APELLIDOS Y NOMBRES" id="1"/>
-    <tableColumn name="CARGO" id="2"/>
-    <tableColumn name="SIGLA" id="3"/>
-    <tableColumn name="RESOL." id="4"/>
-    <tableColumn name="TELF. FIJO" id="5"/>
-    <tableColumn name="CORREO INSTITUCIONAL" id="6"/>
-    <tableColumn name="CORREOS GENERAL" id="7"/>
-    <tableColumn name="ANEXO" id="8"/>
+    <tableColumn id="1" xr3:uid="{0C2AB759-63D8-4D77-8E73-CF5913C1A030}" name="APELLIDOS Y NOMBRES" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{BE343A8A-7125-45B1-830C-AF577A3B591F}" name="CARGO" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{341E47AE-B2C1-430B-AD98-992192767154}" name="SIGLA" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{CB498771-86F3-4609-89AD-CAAC80D472CA}" name="RESOL." dataDxfId="5" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="5" xr3:uid="{FA42890F-1A7C-497E-ADF4-7ED4B8F7BC8F}" name="TELF. FIJO" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{B0252BD3-D224-47FE-8532-40FE6ED56A2B}" name="CORREO INSTITUCIONAL" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{5579FFE2-125B-407F-94E5-036A70B0DF43}" name="CORREOS GENERAL" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{71839444-8575-4559-8875-16834661023E}" name="ANEXO" dataDxfId="1"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -554,82 +896,116 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -641,594 +1017,611 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="9500"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
-            </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0024DB1-78A8-436A-94BD-3B8047A17688}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" style="11" width="32.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="12" width="14.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="13" width="13.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="14" width="14.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="18.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="13" width="33.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="13" width="28.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="15" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="32.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12" style="1"/>
+    <col min="5" max="5" width="15.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="12" style="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" ht="25.5">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="51" customFormat="1" s="1">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:8" ht="22.5">
+      <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="42" customFormat="1" s="1">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:8" ht="22.5">
+      <c r="A3" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="42" customFormat="1" s="1">
-      <c r="A4" s="5"/>
+    <row r="4" spans="1:8" ht="22.5">
+      <c r="A4" s="9"/>
       <c r="B4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="69">
-      <c r="A5" s="5" t="s">
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" ht="22.5">
+      <c r="A5" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="9">
+      <c r="G5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="10">
         <v>1057</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="33">
-      <c r="A6" s="5" t="s">
-        <v>31</v>
+    <row r="6" spans="1:8" ht="22.5">
+      <c r="A6" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="C6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="D6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8" t="s">
+      <c r="E6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="F6" s="5"/>
+      <c r="G6" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="42" customFormat="1" s="1">
-      <c r="A7" s="5"/>
+      <c r="H6" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="22.5">
+      <c r="A7" s="9"/>
       <c r="B7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9">
+        <v>39</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="10">
         <v>1053</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="42" customFormat="1" s="1">
-      <c r="A8" s="5" t="s">
-        <v>39</v>
+    <row r="8" spans="1:8" ht="22.5">
+      <c r="A8" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="8" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="24" customFormat="1" s="1">
-      <c r="A9" s="5" t="s">
+      <c r="E8" s="8"/>
+      <c r="F8" s="5" t="s">
         <v>43</v>
       </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:8" ht="22.5">
+      <c r="A9" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="B9" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="C9" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="D9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="E9" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="F9" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="G9" s="5" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="33" customFormat="1" s="1">
-      <c r="A10" s="5" t="s">
+      <c r="H9" s="10" t="s">
         <v>51</v>
       </c>
+    </row>
+    <row r="10" spans="1:8" ht="22.5">
+      <c r="A10" s="9" t="s">
+        <v>52</v>
+      </c>
       <c r="B10" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9">
+      <c r="C10" s="3"/>
+      <c r="D10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="10">
         <v>1069</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="33" customFormat="1" s="1">
-      <c r="A11" s="5" t="s">
-        <v>54</v>
+    <row r="11" spans="1:8" ht="22.5">
+      <c r="A11" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="C11" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="D11" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="E11" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="F11" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="H11" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="33" customFormat="1" s="1">
-      <c r="A12" s="5" t="s">
+      <c r="G11" s="5" t="s">
         <v>61</v>
       </c>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" ht="22.5">
+      <c r="A12" s="9" t="s">
+        <v>62</v>
+      </c>
       <c r="B12" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9">
+      <c r="F12" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="10">
         <v>2172</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="33" customFormat="1" s="1">
-      <c r="A13" s="5" t="s">
-        <v>65</v>
+    <row r="13" spans="1:8" ht="22.5">
+      <c r="A13" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="42" customFormat="1" s="1">
-      <c r="A14" s="5"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" ht="22.5">
+      <c r="A14" s="9"/>
       <c r="B14" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="33" customFormat="1" s="1">
-      <c r="A15" s="5" t="s">
         <v>69</v>
       </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:8" ht="22.5">
+      <c r="A15" s="9" t="s">
+        <v>70</v>
+      </c>
       <c r="B15" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" s="10">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="22.5">
+      <c r="A16" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G15" s="8" t="s">
+      <c r="B16" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="H15" s="9">
-        <v>1063</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="42" customFormat="1" s="1">
-      <c r="A16" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="42" customFormat="1" s="1">
-      <c r="A17" s="5" t="s">
-        <v>76</v>
+      <c r="G16" s="5"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:8" ht="22.5">
+      <c r="A17" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9">
+      <c r="C17" s="3"/>
+      <c r="D17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="10">
         <v>1054</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="42" customFormat="1" s="1">
-      <c r="A18" s="5" t="s">
-        <v>79</v>
+    <row r="18" spans="1:8" ht="22.5">
+      <c r="A18" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="22.5">
+      <c r="A19" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="G18" s="8" t="s">
+      <c r="B19" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="H18" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="42.75" customFormat="1" s="1">
-      <c r="A19" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="9"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="10"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G3" r:id="rId1" display="mailto:oasa@unac.edu.pe" xr:uid="{5E8E7D34-7627-49FA-B0F3-CE7011C83CEE}"/>
+    <hyperlink ref="G5" r:id="rId2" xr:uid="{BA447F35-8CBD-4E4E-9F94-115BDC8CF5DB}"/>
+    <hyperlink ref="G6" r:id="rId3" display="mailto:contabilidad@unac.edu.pe" xr:uid="{921FEACB-2EF6-4C0D-BECB-F5FC06710867}"/>
+    <hyperlink ref="G9" r:id="rId4" display="mailto:tesoreria@unac.edu.pe" xr:uid="{D8243BA8-0A9E-4A48-BF1E-8031808E8E9A}"/>
+    <hyperlink ref="G11" r:id="rId5" xr:uid="{18104C81-5764-4A53-82B5-D7C5F751945E}"/>
+    <hyperlink ref="G18" r:id="rId6" xr:uid="{2F228159-3712-4612-B28D-7880C6D3E490}"/>
+    <hyperlink ref="F2" r:id="rId7" xr:uid="{0885AFF6-0428-4E34-A6AA-20421626F45C}"/>
+    <hyperlink ref="F8" r:id="rId8" xr:uid="{E81C9C75-C5FF-47B4-BE25-D2BC6CCB758C}"/>
+    <hyperlink ref="F9" r:id="rId9" xr:uid="{9B6A9AB2-36A2-4B5D-8C9F-9AB83C2EB29D}"/>
+    <hyperlink ref="F10" r:id="rId10" xr:uid="{4929C2AA-17B7-423A-B224-4DDCE266BBDB}"/>
+    <hyperlink ref="F11" r:id="rId11" xr:uid="{A8D5C9E7-9F5F-4E82-BFCA-011228F6D825}"/>
+    <hyperlink ref="F12" r:id="rId12" xr:uid="{6FF9AF6B-639B-4A47-A990-70D937EA3D36}"/>
+    <hyperlink ref="F13" r:id="rId13" xr:uid="{CDA968D7-87F9-47FE-BACF-3DF1F8691644}"/>
+    <hyperlink ref="F15" r:id="rId14" xr:uid="{9827F5F1-BEE3-4A8B-B40A-48068363A5E1}"/>
+    <hyperlink ref="F16" r:id="rId15" xr:uid="{5EE7FF31-793A-4ACA-ACF3-4679770A1EC0}"/>
+    <hyperlink ref="F17" r:id="rId16" xr:uid="{35E92D31-84D8-4FA3-9332-D01F9170A2B2}"/>
+    <hyperlink ref="F19" r:id="rId17" xr:uid="{4E295538-E1B7-4053-8189-FF1F20F63D76}"/>
+    <hyperlink ref="F18" r:id="rId18" xr:uid="{283A2900-77BA-44DC-8307-B8E82F12554E}"/>
+    <hyperlink ref="G15" r:id="rId19" display="mailto:orh@unac.edu.pe" xr:uid="{283E9C97-4A65-44CD-AE5B-0038A9E55FE9}"/>
+    <hyperlink ref="D2" r:id="rId20" xr:uid="{87E4F4F4-8E34-47B7-8E5D-2F03457752A0}"/>
+    <hyperlink ref="D4" r:id="rId21" xr:uid="{F27BFB55-6D08-46F6-87D8-AEA14691931D}"/>
+    <hyperlink ref="D8" r:id="rId22" xr:uid="{34BAF147-08E1-4405-B15B-57E6076F0C07}"/>
+    <hyperlink ref="D9" r:id="rId23" xr:uid="{4B74A450-FD34-4B50-BE8F-8B16266F5A69}"/>
+    <hyperlink ref="D10" r:id="rId24" xr:uid="{C719F9E7-E08C-471D-AB86-CAF866E34439}"/>
+    <hyperlink ref="D11" r:id="rId25" xr:uid="{1A6B496E-FD65-4FC2-816D-32DB86D55250}"/>
+    <hyperlink ref="D12" r:id="rId26" xr:uid="{144AF6B7-CC77-4340-AEF2-FFDEEF451FC3}"/>
+    <hyperlink ref="D13" r:id="rId27" xr:uid="{A7CFA915-2066-41E7-A5E3-A37FA641FB00}"/>
+    <hyperlink ref="D15" r:id="rId28" xr:uid="{7EFF37AC-7D47-4F24-8D01-E41D212339E4}"/>
+    <hyperlink ref="D16" r:id="rId29" xr:uid="{5B129DC7-B539-4237-831E-66C19DC63D6E}"/>
+    <hyperlink ref="D17" r:id="rId30" xr:uid="{26A442A4-BEFC-41FF-9BC7-6CCA76611104}"/>
+    <hyperlink ref="D18" r:id="rId31" xr:uid="{A605DCB0-6087-4CCB-92C3-492513AA8F7F}"/>
+    <hyperlink ref="D19" r:id="rId32" xr:uid="{8EB2CEB8-A9B9-43A4-9086-708576EE33A7}"/>
+    <hyperlink ref="D6" r:id="rId33" xr:uid="{584952EE-19B5-4761-B260-5E8A40C68E1A}"/>
+    <hyperlink ref="D3" r:id="rId34" xr:uid="{02B258F2-2141-4C63-B520-077EC2B52A55}"/>
+    <hyperlink ref="F3" r:id="rId35" xr:uid="{1BB87A17-A686-4721-BE61-C13EA89A7408}"/>
+    <hyperlink ref="F5" r:id="rId36" xr:uid="{5E9C333E-FF90-4D7C-B37F-633231CD567E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId37"/>
   </tableParts>
 </worksheet>
 </file>